--- a/Data/WWTP/WWTP_location.xlsx
+++ b/Data/WWTP/WWTP_location.xlsx
@@ -1,40 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uthtmc-my.sharepoint.com/personal/hieu_t_nguyen_uth_tmc_edu1/Documents/TEPHI_WW_Dashboard/Data/WWTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{D31C9E89-BFD8-4A4B-8DE6-C69F891C6CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D3D7A9-93EB-486A-BE29-FC448981E176}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{D31C9E89-BFD8-4A4B-8DE6-C69F891C6CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C85A9BD-46E0-2C4A-B70C-00F32D4B373C}"/>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="255" windowWidth="19935" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8860" yWindow="500" windowWidth="19940" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Codebook" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>WWTP</t>
   </si>
   <si>
-    <t>ZCTA</t>
-  </si>
-  <si>
-    <t>coverage_pct</t>
-  </si>
-  <si>
-    <t>ZCTA_pop</t>
-  </si>
-  <si>
     <t>Turkey Creek</t>
   </si>
   <si>
@@ -50,33 +40,6 @@
     <t>Almeda Sims</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>String type</t>
-  </si>
-  <si>
-    <t>Wastewater treatment facility name</t>
-  </si>
-  <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip Code Tabulated Areas </t>
-  </si>
-  <si>
-    <t>% area covered by the WW facility service area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population of the ZCTA, from 2017-2021 American Community Survey 5-year estimates. </t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -119,9 +82,6 @@
     <t>Wichita Falls</t>
   </si>
   <si>
-    <t>BRSV_TX1</t>
-  </si>
-  <si>
     <t>BRSV_TX2</t>
   </si>
   <si>
@@ -195,6 +155,9 @@
   </si>
   <si>
     <t>city_centroid_lon</t>
+  </si>
+  <si>
+    <t>Robindale</t>
   </si>
 </sst>
 </file>
@@ -238,13 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -264,14 +226,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -309,9 +267,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +302,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,9 +354,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,92 +549,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>29.763192418352482</v>
@@ -663,18 +655,18 @@
         <v>-95.371262999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>29.8074534</v>
@@ -695,18 +687,18 @@
         <v>-95.371262999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>29.585737000000002</v>
@@ -727,18 +719,18 @@
         <v>-95.371262999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>29.789839700000002</v>
@@ -759,18 +751,18 @@
         <v>-95.371262999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>29.629288200000001</v>
@@ -791,18 +783,18 @@
         <v>-95.371262999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>29.964918600000001</v>
@@ -823,18 +815,18 @@
         <v>-95.371262999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>31.946919999999999</v>
@@ -855,18 +847,18 @@
         <v>-106.461641</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>31.763929999999998</v>
@@ -887,18 +879,18 @@
         <v>-106.461641</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>31.791319999999999</v>
@@ -919,18 +911,18 @@
         <v>-106.461641</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>31.65212</v>
@@ -951,18 +943,18 @@
         <v>-106.461641</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>25.89799</v>
@@ -983,21 +975,21 @@
         <v>-97.491712000000007</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>25.956150000000001</v>
@@ -1018,21 +1010,21 @@
         <v>-97.491712000000007</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>33.659480000000002</v>
@@ -1053,18 +1045,18 @@
         <v>-101.86396999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
       </c>
       <c r="E16">
         <v>37.766460000000002</v>
@@ -1085,18 +1077,18 @@
         <v>-98.700410000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>29.568729999999999</v>
@@ -1117,18 +1109,18 @@
         <v>-95.534903</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>29.764720000000001</v>
@@ -1149,18 +1141,18 @@
         <v>-94.976112000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
       </c>
       <c r="E19">
         <v>29.811800000000002</v>
@@ -1181,18 +1173,18 @@
         <v>-94.976112000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>29.999400000000001</v>
@@ -1217,79 +1209,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1124188-674B-834B-BC06-D565342BA2C0}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>